--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.02418920250645</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N2">
-        <v>1.02418920250645</v>
+        <v>0.02856</v>
       </c>
       <c r="O2">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P2">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q2">
-        <v>27.65243503009479</v>
+        <v>0.3096395771466666</v>
       </c>
       <c r="R2">
-        <v>27.65243503009479</v>
+        <v>2.78675619432</v>
       </c>
       <c r="S2">
-        <v>0.006073761221366943</v>
+        <v>6.105425205983912E-05</v>
       </c>
       <c r="T2">
-        <v>0.006073761221366943</v>
+        <v>6.105425205983912E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.42349468493661</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N3">
-        <v>8.42349468493661</v>
+        <v>3.23744</v>
       </c>
       <c r="O3">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P3">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q3">
-        <v>227.4288177726532</v>
+        <v>35.09942411196445</v>
       </c>
       <c r="R3">
-        <v>227.4288177726532</v>
+        <v>315.89481700768</v>
       </c>
       <c r="S3">
-        <v>0.04995394917321084</v>
+        <v>0.006920850062626247</v>
       </c>
       <c r="T3">
-        <v>0.04995394917321084</v>
+        <v>0.006920850062626246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.0154433058358</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>12.0154433058358</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02418920250645</v>
+        <v>8.844986</v>
       </c>
       <c r="N4">
-        <v>1.02418920250645</v>
+        <v>26.534958</v>
       </c>
       <c r="O4">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P4">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q4">
-        <v>12.30608729716543</v>
+        <v>287.6846349693474</v>
       </c>
       <c r="R4">
-        <v>12.30608729716543</v>
+        <v>2589.161714724126</v>
       </c>
       <c r="S4">
-        <v>0.002702989293020085</v>
+        <v>0.05672521057875508</v>
       </c>
       <c r="T4">
-        <v>0.002702989293020085</v>
+        <v>0.05672521057875507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H5">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I5">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J5">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>8.42349468493661</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N5">
-        <v>8.42349468493661</v>
+        <v>0.02856</v>
       </c>
       <c r="O5">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P5">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q5">
-        <v>101.212022823865</v>
+        <v>0.11572280664</v>
       </c>
       <c r="R5">
-        <v>101.212022823865</v>
+        <v>1.04150525976</v>
       </c>
       <c r="S5">
-        <v>0.02223086895221575</v>
+        <v>2.281804370997426E-05</v>
       </c>
       <c r="T5">
-        <v>0.02223086895221575</v>
+        <v>2.281804370997426E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>135.384559057878</v>
+        <v>12.155757</v>
       </c>
       <c r="H6">
-        <v>135.384559057878</v>
+        <v>36.467271</v>
       </c>
       <c r="I6">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J6">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02418920250645</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N6">
-        <v>1.02418920250645</v>
+        <v>3.23744</v>
       </c>
       <c r="O6">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P6">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q6">
-        <v>138.6594035731755</v>
+        <v>13.11784464736</v>
       </c>
       <c r="R6">
-        <v>138.6594035731755</v>
+        <v>118.06060182624</v>
       </c>
       <c r="S6">
-        <v>0.0304560559489265</v>
+        <v>0.00258655628250767</v>
       </c>
       <c r="T6">
-        <v>0.0304560559489265</v>
+        <v>0.00258655628250767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>135.384559057878</v>
+        <v>12.155757</v>
       </c>
       <c r="H7">
-        <v>135.384559057878</v>
+        <v>36.467271</v>
       </c>
       <c r="I7">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J7">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.42349468493661</v>
+        <v>8.844986</v>
       </c>
       <c r="N7">
-        <v>8.42349468493661</v>
+        <v>26.534958</v>
       </c>
       <c r="O7">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P7">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q7">
-        <v>1140.411113646522</v>
+        <v>107.517500484402</v>
       </c>
       <c r="R7">
-        <v>1140.411113646522</v>
+        <v>967.6575043596182</v>
       </c>
       <c r="S7">
-        <v>0.250487336501967</v>
+        <v>0.02120013415568386</v>
       </c>
       <c r="T7">
-        <v>0.250487336501967</v>
+        <v>0.02120013415568386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>160.10829669583</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H8">
-        <v>160.10829669583</v>
+        <v>453.201478</v>
       </c>
       <c r="I8">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J8">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.02418920250645</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N8">
-        <v>1.02418920250645</v>
+        <v>0.02856</v>
       </c>
       <c r="O8">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P8">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q8">
-        <v>163.9811887075682</v>
+        <v>1.438159356853333</v>
       </c>
       <c r="R8">
-        <v>163.9811887075682</v>
+        <v>12.94343421168</v>
       </c>
       <c r="S8">
-        <v>0.03601789802314811</v>
+        <v>0.0002835740336706011</v>
       </c>
       <c r="T8">
-        <v>0.03601789802314811</v>
+        <v>0.0002835740336706011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>160.10829669583</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H9">
-        <v>160.10829669583</v>
+        <v>453.201478</v>
       </c>
       <c r="I9">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J9">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.42349468493661</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N9">
-        <v>8.42349468493661</v>
+        <v>3.23744</v>
       </c>
       <c r="O9">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P9">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q9">
-        <v>1348.671386231578</v>
+        <v>163.0236214373689</v>
       </c>
       <c r="R9">
-        <v>1348.671386231578</v>
+        <v>1467.21259293632</v>
       </c>
       <c r="S9">
-        <v>0.2962309813636863</v>
+        <v>0.03214474508286243</v>
       </c>
       <c r="T9">
-        <v>0.2962309813636863</v>
+        <v>0.03214474508286242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>138.08143593009</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H10">
-        <v>138.08143593009</v>
+        <v>453.201478</v>
       </c>
       <c r="I10">
-        <v>0.2865398189767405</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J10">
-        <v>0.2865398189767405</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02418920250645</v>
+        <v>8.844986</v>
       </c>
       <c r="N10">
-        <v>1.02418920250645</v>
+        <v>26.534958</v>
       </c>
       <c r="O10">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P10">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q10">
-        <v>141.4215157461844</v>
+        <v>1336.186909363103</v>
       </c>
       <c r="R10">
-        <v>141.4215157461844</v>
+        <v>12025.68218426793</v>
       </c>
       <c r="S10">
-        <v>0.03106274428531456</v>
+        <v>0.2634672644726886</v>
       </c>
       <c r="T10">
-        <v>0.03106274428531456</v>
+        <v>0.2634672644726886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>138.08143593009</v>
+        <v>162.458898</v>
       </c>
       <c r="H11">
-        <v>138.08143593009</v>
+        <v>487.376694</v>
       </c>
       <c r="I11">
-        <v>0.2865398189767405</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J11">
-        <v>0.2865398189767405</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>8.42349468493661</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N11">
-        <v>8.42349468493661</v>
+        <v>0.02856</v>
       </c>
       <c r="O11">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P11">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q11">
-        <v>1163.128241645528</v>
+        <v>1.54660870896</v>
       </c>
       <c r="R11">
-        <v>1163.128241645528</v>
+        <v>13.91947838064</v>
       </c>
       <c r="S11">
-        <v>0.2554770746914259</v>
+        <v>0.000304957908885333</v>
       </c>
       <c r="T11">
-        <v>0.2554770746914259</v>
+        <v>0.000304957908885333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.30358382520104</v>
+        <v>162.458898</v>
       </c>
       <c r="H12">
-        <v>9.30358382520104</v>
+        <v>487.376694</v>
       </c>
       <c r="I12">
-        <v>0.01930634054571784</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J12">
-        <v>0.01930634054571784</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.02418920250645</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N12">
-        <v>1.02418920250645</v>
+        <v>3.23744</v>
       </c>
       <c r="O12">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P12">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q12">
-        <v>9.528630098384561</v>
+        <v>175.31697824704</v>
       </c>
       <c r="R12">
-        <v>9.528630098384561</v>
+        <v>1577.85280422336</v>
       </c>
       <c r="S12">
-        <v>0.002092930475067809</v>
+        <v>0.03456873013101305</v>
       </c>
       <c r="T12">
-        <v>0.002092930475067809</v>
+        <v>0.03456873013101305</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.30358382520104</v>
+        <v>162.458898</v>
       </c>
       <c r="H13">
-        <v>9.30358382520104</v>
+        <v>487.376694</v>
       </c>
       <c r="I13">
-        <v>0.01930634054571784</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J13">
-        <v>0.01930634054571784</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.42349468493661</v>
+        <v>8.844986</v>
       </c>
       <c r="N13">
-        <v>8.42349468493661</v>
+        <v>26.534958</v>
       </c>
       <c r="O13">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P13">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q13">
-        <v>78.36868890244318</v>
+        <v>1436.946678385428</v>
       </c>
       <c r="R13">
-        <v>78.36868890244318</v>
+        <v>12932.52010546886</v>
       </c>
       <c r="S13">
-        <v>0.01721341007065003</v>
+        <v>0.2833349196092486</v>
       </c>
       <c r="T13">
-        <v>0.01721341007065003</v>
+        <v>0.2833349196092486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H14">
+        <v>427.775368</v>
+      </c>
+      <c r="I14">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J14">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.009519999999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.02856</v>
+      </c>
+      <c r="O14">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="P14">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="Q14">
+        <v>1.357473834453333</v>
+      </c>
+      <c r="R14">
+        <v>12.21726451008</v>
+      </c>
+      <c r="S14">
+        <v>0.00026766458737958</v>
+      </c>
+      <c r="T14">
+        <v>0.00026766458737958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H15">
+        <v>427.775368</v>
+      </c>
+      <c r="I15">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J15">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.23744</v>
+      </c>
+      <c r="O15">
+        <v>0.1086354338004839</v>
+      </c>
+      <c r="P15">
+        <v>0.1086354338004838</v>
+      </c>
+      <c r="Q15">
+        <v>153.8774541531022</v>
+      </c>
+      <c r="R15">
+        <v>1384.89708737792</v>
+      </c>
+      <c r="S15">
+        <v>0.03034131798901077</v>
+      </c>
+      <c r="T15">
+        <v>0.03034131798901076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H16">
+        <v>427.775368</v>
+      </c>
+      <c r="I16">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J16">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.844986</v>
+      </c>
+      <c r="N16">
+        <v>26.534958</v>
+      </c>
+      <c r="O16">
+        <v>0.8904062077467443</v>
+      </c>
+      <c r="P16">
+        <v>0.8904062077467442</v>
+      </c>
+      <c r="Q16">
+        <v>1261.222380368283</v>
+      </c>
+      <c r="R16">
+        <v>11351.00142331455</v>
+      </c>
+      <c r="S16">
+        <v>0.2486858747970758</v>
+      </c>
+      <c r="T16">
+        <v>0.2486858747970758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H17">
+        <v>29.23006</v>
+      </c>
+      <c r="I17">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J17">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.009519999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.02856</v>
+      </c>
+      <c r="O17">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="P17">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="Q17">
+        <v>0.09275672373333332</v>
+      </c>
+      <c r="R17">
+        <v>0.8348105136</v>
+      </c>
+      <c r="S17">
+        <v>1.828962706655976E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.828962706655977E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H18">
+        <v>29.23006</v>
+      </c>
+      <c r="I18">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J18">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.23744</v>
+      </c>
+      <c r="O18">
+        <v>0.1086354338004839</v>
+      </c>
+      <c r="P18">
+        <v>0.1086354338004838</v>
+      </c>
+      <c r="Q18">
+        <v>10.51450727182222</v>
+      </c>
+      <c r="R18">
+        <v>94.63056544640001</v>
+      </c>
+      <c r="S18">
+        <v>0.002073234252463699</v>
+      </c>
+      <c r="T18">
+        <v>0.002073234252463699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H19">
+        <v>29.23006</v>
+      </c>
+      <c r="I19">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J19">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.844986</v>
+      </c>
+      <c r="N19">
+        <v>26.534958</v>
+      </c>
+      <c r="O19">
+        <v>0.8904062077467443</v>
+      </c>
+      <c r="P19">
+        <v>0.8904062077467442</v>
+      </c>
+      <c r="Q19">
+        <v>86.17982382638667</v>
+      </c>
+      <c r="R19">
+        <v>775.6184144374802</v>
+      </c>
+      <c r="S19">
+        <v>0.01699280413329225</v>
+      </c>
+      <c r="T19">
+        <v>0.01699280413329225</v>
       </c>
     </row>
   </sheetData>
